--- a/Game_ts/excel/item.xlsx
+++ b/Game_ts/excel/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18135" windowHeight="9495" activeTab="1"/>
+    <workbookView windowWidth="18135" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="商品" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>function</t>
+    <t>functionType</t>
   </si>
   <si>
     <t>functionNum</t>
@@ -139,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,7 +172,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF44546A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -183,50 +202,31 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color rgb="FF44546A"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -236,6 +236,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -243,42 +263,22 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF44546A"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -298,49 +298,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC9C9C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,121 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,30 +477,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,6 +491,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +536,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF5B9BD5"/>
       </top>
@@ -548,31 +557,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF5B9BD5"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -585,142 +585,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,16 +1055,16 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
@@ -1075,7 +1075,7 @@
     <col min="12" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1195,7 +1195,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
